--- a/Top50NJHSSATscores.xlsx
+++ b/Top50NJHSSATscores.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugoescobar/Documents/GitHub/Stats/StatsProb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EB995A3-730C-D946-893E-89A71EFF8D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3457845-B82D-FD41-80D3-6986402396F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14380" yWindow="880" windowWidth="28040" windowHeight="15800" xr2:uid="{387F0E4B-8E38-1342-B465-59DAFE3D8F07}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="15800" xr2:uid="{387F0E4B-8E38-1342-B465-59DAFE3D8F07}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="71">
   <si>
     <t>Middlesex County Academy for Science, Mathematics &amp; Engineering Technologies: 1,498</t>
   </si>
@@ -233,6 +233,21 @@
   </si>
   <si>
     <t>Princeton High School: 1,320</t>
+  </si>
+  <si>
+    <t>7 somer set counties</t>
+  </si>
+  <si>
+    <t>1 camden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N = 50,n = 4, p = 7/50 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">binomial ans= </t>
+  </si>
+  <si>
+    <t>lambda = 70%</t>
   </si>
 </sst>
 </file>
@@ -632,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42CD2E31-A92A-3A4F-A841-ABECE2374E0C}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -647,7 +662,7 @@
     <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>61</v>
       </c>
@@ -661,7 +676,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -675,7 +690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -689,7 +704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -703,7 +718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -717,7 +732,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -731,7 +746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -745,7 +760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -759,7 +774,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -773,7 +788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
@@ -787,7 +802,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>14</v>
       </c>
@@ -801,7 +816,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
@@ -815,7 +830,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -828,8 +843,11 @@
       <c r="D13" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="G13" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
@@ -842,8 +860,11 @@
       <c r="D14" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="G14" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
@@ -857,7 +878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -871,7 +892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
@@ -885,7 +906,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>65</v>
       </c>
@@ -898,8 +919,11 @@
       <c r="D18" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="G18" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
@@ -912,8 +936,11 @@
       <c r="D19" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="G19" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
@@ -927,7 +954,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>26</v>
       </c>
@@ -941,7 +968,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>27</v>
       </c>
@@ -954,8 +981,11 @@
       <c r="D22" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="G22" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>29</v>
       </c>
@@ -969,7 +999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>30</v>
       </c>
@@ -983,7 +1013,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>31</v>
       </c>
@@ -997,7 +1027,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>32</v>
       </c>
@@ -1011,7 +1041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>33</v>
       </c>
@@ -1025,7 +1055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>34</v>
       </c>
@@ -1039,7 +1069,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>35</v>
       </c>
@@ -1053,7 +1083,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>36</v>
       </c>
@@ -1067,7 +1097,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>38</v>
       </c>
@@ -1081,7 +1111,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>39</v>
       </c>
